--- a/media/DownloadedExcelReports/usage_bundle_all_months_2026.xlsx
+++ b/media/DownloadedExcelReports/usage_bundle_all_months_2026.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -2690,7 +2690,7 @@
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Global Top 10 Usage (January 2026)</t>
+          <t>Global Top 10 Usage (February 2026)</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
